--- a/output/templates/Volume_dari_Gambar_TEMPLATE_V2.xlsx
+++ b/output/templates/Volume_dari_Gambar_TEMPLATE_V2.xlsx
@@ -557,7 +557,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>19-01-2026</t>
+          <t>20-01-2026</t>
         </is>
       </c>
     </row>
